--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H2">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>131.4590245765662</v>
+        <v>332.4366268947963</v>
       </c>
       <c r="R2">
-        <v>131.4590245765662</v>
+        <v>2991.929642053167</v>
       </c>
       <c r="S2">
-        <v>0.005345212708972528</v>
+        <v>0.01153999032754917</v>
       </c>
       <c r="T2">
-        <v>0.005345212708972528</v>
+        <v>0.01153999032754917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H3">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>1996.643490797135</v>
+        <v>2372.695795205207</v>
       </c>
       <c r="R3">
-        <v>1996.643490797135</v>
+        <v>21354.26215684687</v>
       </c>
       <c r="S3">
-        <v>0.08118487259944716</v>
+        <v>0.08236422918449868</v>
       </c>
       <c r="T3">
-        <v>0.08118487259944716</v>
+        <v>0.08236422918449869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H4">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>1776.355160202056</v>
+        <v>2320.269267417574</v>
       </c>
       <c r="R4">
-        <v>1776.355160202056</v>
+        <v>20882.42340675816</v>
       </c>
       <c r="S4">
-        <v>0.07222780032443303</v>
+        <v>0.08054432856395803</v>
       </c>
       <c r="T4">
-        <v>0.07222780032443303</v>
+        <v>0.08054432856395803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H5">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>2219.230063012212</v>
+        <v>2651.336590224711</v>
       </c>
       <c r="R5">
-        <v>2219.230063012212</v>
+        <v>23862.02931202241</v>
       </c>
       <c r="S5">
-        <v>0.09023539293065268</v>
+        <v>0.09203678575391447</v>
       </c>
       <c r="T5">
-        <v>0.09023539293065268</v>
+        <v>0.09203678575391448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H6">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>848.8724090426654</v>
+        <v>1007.242055377052</v>
       </c>
       <c r="R6">
-        <v>848.8724090426654</v>
+        <v>9065.17849839347</v>
       </c>
       <c r="S6">
-        <v>0.03451572536557383</v>
+        <v>0.03496475007920938</v>
       </c>
       <c r="T6">
-        <v>0.03451572536557383</v>
+        <v>0.03496475007920938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H7">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>540.3036618643401</v>
+        <v>676.8080179825425</v>
       </c>
       <c r="R7">
-        <v>540.3036618643401</v>
+        <v>6091.272161842884</v>
       </c>
       <c r="S7">
-        <v>0.02196911173960198</v>
+        <v>0.02349427634999423</v>
       </c>
       <c r="T7">
-        <v>0.02196911173960198</v>
+        <v>0.02349427634999423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H8">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>50.35998740677479</v>
+        <v>108.6236305677545</v>
       </c>
       <c r="R8">
-        <v>50.35998740677479</v>
+        <v>977.612675109791</v>
       </c>
       <c r="S8">
-        <v>0.002047671094300617</v>
+        <v>0.003770690545755816</v>
       </c>
       <c r="T8">
-        <v>0.002047671094300617</v>
+        <v>0.003770690545755816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H9">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>764.8842776389102</v>
+        <v>775.2780850757374</v>
       </c>
       <c r="R9">
-        <v>764.8842776389102</v>
+        <v>6977.502765681636</v>
       </c>
       <c r="S9">
-        <v>0.0311007112284445</v>
+        <v>0.02691250265202019</v>
       </c>
       <c r="T9">
-        <v>0.0311007112284445</v>
+        <v>0.02691250265202019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H10">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>680.4951108216386</v>
+        <v>758.1477229987686</v>
       </c>
       <c r="R10">
-        <v>680.4951108216386</v>
+        <v>6823.329506988917</v>
       </c>
       <c r="S10">
-        <v>0.02766939072059637</v>
+        <v>0.02631785032829115</v>
       </c>
       <c r="T10">
-        <v>0.02766939072059637</v>
+        <v>0.02631785032829115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H11">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>850.1538664691517</v>
+        <v>866.3239336093961</v>
       </c>
       <c r="R11">
-        <v>850.1538664691517</v>
+        <v>7796.915402484565</v>
       </c>
       <c r="S11">
-        <v>0.03456783028985824</v>
+        <v>0.03007300942666757</v>
       </c>
       <c r="T11">
-        <v>0.03456783028985824</v>
+        <v>0.03007300942666758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H12">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>325.1903318699023</v>
+        <v>329.1162286705759</v>
       </c>
       <c r="R12">
-        <v>325.1903318699023</v>
+        <v>2962.046058035183</v>
       </c>
       <c r="S12">
-        <v>0.01322245848350717</v>
+        <v>0.01142472816841518</v>
       </c>
       <c r="T12">
-        <v>0.01322245848350717</v>
+        <v>0.01142472816841518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H13">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>206.9822569805744</v>
+        <v>221.1469439975258</v>
       </c>
       <c r="R13">
-        <v>206.9822569805744</v>
+        <v>1990.322495977732</v>
       </c>
       <c r="S13">
-        <v>0.008416038336721415</v>
+        <v>0.007676752163371361</v>
       </c>
       <c r="T13">
-        <v>0.008416038336721415</v>
+        <v>0.00767675216337136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H14">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>101.435781415005</v>
+        <v>256.4264341946647</v>
       </c>
       <c r="R14">
-        <v>101.435781415005</v>
+        <v>2307.837907751982</v>
       </c>
       <c r="S14">
-        <v>0.004124447368375617</v>
+        <v>0.008901421597178029</v>
       </c>
       <c r="T14">
-        <v>0.004124447368375617</v>
+        <v>0.008901421597178029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H15">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>1540.640464574798</v>
+        <v>1830.189193881119</v>
       </c>
       <c r="R15">
-        <v>1540.640464574798</v>
+        <v>16471.70274493008</v>
       </c>
       <c r="S15">
-        <v>0.06264348163032486</v>
+        <v>0.06353200545996676</v>
       </c>
       <c r="T15">
-        <v>0.06264348163032486</v>
+        <v>0.06353200545996676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H16">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>1370.662640515224</v>
+        <v>1789.749764257004</v>
       </c>
       <c r="R16">
-        <v>1370.662640515224</v>
+        <v>16107.74787831304</v>
       </c>
       <c r="S16">
-        <v>0.05573206852397283</v>
+        <v>0.06212821722197101</v>
       </c>
       <c r="T16">
-        <v>0.05573206852397283</v>
+        <v>0.062128217221971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H17">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>1712.391646799442</v>
+        <v>2045.119979803904</v>
       </c>
       <c r="R17">
-        <v>1712.391646799442</v>
+        <v>18406.07981823513</v>
       </c>
       <c r="S17">
-        <v>0.06962700067715547</v>
+        <v>0.07099297392727826</v>
       </c>
       <c r="T17">
-        <v>0.06962700067715547</v>
+        <v>0.07099297392727826</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H18">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>655.0028528678868</v>
+        <v>776.9405286168408</v>
       </c>
       <c r="R18">
-        <v>655.0028528678868</v>
+        <v>6992.464757551566</v>
       </c>
       <c r="S18">
-        <v>0.0266328582981651</v>
+        <v>0.02697021164324546</v>
       </c>
       <c r="T18">
-        <v>0.0266328582981651</v>
+        <v>0.02697021164324545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H19">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>416.906517594591</v>
+        <v>522.0588005200294</v>
       </c>
       <c r="R19">
-        <v>416.906517594591</v>
+        <v>4698.529204680264</v>
       </c>
       <c r="S19">
-        <v>0.01695170052781092</v>
+        <v>0.01812241197574058</v>
       </c>
       <c r="T19">
-        <v>0.01695170052781092</v>
+        <v>0.01812241197574058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H20">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>69.60272854014026</v>
+        <v>155.2888846767175</v>
       </c>
       <c r="R20">
-        <v>69.60272854014026</v>
+        <v>1397.599962090457</v>
       </c>
       <c r="S20">
-        <v>0.002830093942734475</v>
+        <v>0.005390598033327804</v>
       </c>
       <c r="T20">
-        <v>0.002830093942734475</v>
+        <v>0.005390598033327805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H21">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>1057.149445076318</v>
+        <v>1108.341421810767</v>
       </c>
       <c r="R21">
-        <v>1057.149445076318</v>
+        <v>9975.072796296899</v>
       </c>
       <c r="S21">
-        <v>0.04298441029291251</v>
+        <v>0.03847424818013803</v>
       </c>
       <c r="T21">
-        <v>0.04298441029291251</v>
+        <v>0.03847424818013803</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H22">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>940.5148593234036</v>
+        <v>1083.851770644287</v>
       </c>
       <c r="R22">
-        <v>940.5148593234036</v>
+        <v>9754.665935798586</v>
       </c>
       <c r="S22">
-        <v>0.03824196927693559</v>
+        <v>0.03762413024871147</v>
       </c>
       <c r="T22">
-        <v>0.03824196927693559</v>
+        <v>0.03762413024871148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H23">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>1175.000865414089</v>
+        <v>1238.501021516084</v>
       </c>
       <c r="R23">
-        <v>1175.000865414089</v>
+        <v>11146.50919364476</v>
       </c>
       <c r="S23">
-        <v>0.0477763286247956</v>
+        <v>0.04299252444730871</v>
       </c>
       <c r="T23">
-        <v>0.0477763286247956</v>
+        <v>0.04299252444730872</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H24">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>449.4467842137311</v>
+        <v>470.5062039643601</v>
       </c>
       <c r="R24">
-        <v>449.4467842137311</v>
+        <v>4234.555835679241</v>
       </c>
       <c r="S24">
-        <v>0.01827480974185105</v>
+        <v>0.01633284843946774</v>
       </c>
       <c r="T24">
-        <v>0.01827480974185105</v>
+        <v>0.01633284843946774</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H25">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>286.0709580579918</v>
+        <v>316.1527754462182</v>
       </c>
       <c r="R25">
-        <v>286.0709580579918</v>
+        <v>2845.374979015964</v>
       </c>
       <c r="S25">
-        <v>0.01163183832836763</v>
+        <v>0.0109747232269679</v>
       </c>
       <c r="T25">
-        <v>0.01163183832836763</v>
+        <v>0.0109747232269679</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H26">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>65.81364023170129</v>
+        <v>143.815721699006</v>
       </c>
       <c r="R26">
-        <v>65.81364023170129</v>
+        <v>1294.341495291054</v>
       </c>
       <c r="S26">
-        <v>0.00267602705347431</v>
+        <v>0.004992326064844965</v>
       </c>
       <c r="T26">
-        <v>0.00267602705347431</v>
+        <v>0.004992326064844966</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H27">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>999.5995086495966</v>
+        <v>1026.454158637642</v>
       </c>
       <c r="R27">
-        <v>999.5995086495966</v>
+        <v>9238.087427738777</v>
       </c>
       <c r="S27">
-        <v>0.04064439101633933</v>
+        <v>0.03563166662167942</v>
       </c>
       <c r="T27">
-        <v>0.04064439101633933</v>
+        <v>0.03563166662167942</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H28">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>889.3143685937875</v>
+        <v>1003.773869162988</v>
       </c>
       <c r="R28">
-        <v>889.3143685937875</v>
+        <v>9033.964822466891</v>
       </c>
       <c r="S28">
-        <v>0.0361601227499657</v>
+        <v>0.03484435770326006</v>
       </c>
       <c r="T28">
-        <v>0.0361601227499657</v>
+        <v>0.03484435770326006</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H29">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>1111.035240288077</v>
+        <v>1146.99721493329</v>
       </c>
       <c r="R29">
-        <v>1111.035240288077</v>
+        <v>10322.97493439961</v>
       </c>
       <c r="S29">
-        <v>0.04517544311341869</v>
+        <v>0.03981612041276308</v>
       </c>
       <c r="T29">
-        <v>0.04517544311341869</v>
+        <v>0.03981612041276308</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H30">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>424.9794452020483</v>
+        <v>435.743932528478</v>
       </c>
       <c r="R30">
-        <v>424.9794452020483</v>
+        <v>3921.695392756302</v>
       </c>
       <c r="S30">
-        <v>0.01727995121569628</v>
+        <v>0.01512613340364026</v>
       </c>
       <c r="T30">
-        <v>0.01727995121569628</v>
+        <v>0.01512613340364026</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H31">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>270.497601304652</v>
+        <v>292.794552955912</v>
       </c>
       <c r="R31">
-        <v>270.497601304652</v>
+        <v>2635.150976603208</v>
       </c>
       <c r="S31">
-        <v>0.01099861512663277</v>
+        <v>0.01016388097975614</v>
       </c>
       <c r="T31">
-        <v>0.01099861512663277</v>
+        <v>0.01016388097975614</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H32">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>11.66743766308334</v>
+        <v>26.46577742975778</v>
       </c>
       <c r="R32">
-        <v>11.66743766308334</v>
+        <v>238.19199686782</v>
       </c>
       <c r="S32">
-        <v>0.0004744058939942484</v>
+        <v>0.0009187159020450722</v>
       </c>
       <c r="T32">
-        <v>0.0004744058939942484</v>
+        <v>0.0009187159020450722</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H33">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>177.2089328923056</v>
+        <v>188.8938635040822</v>
       </c>
       <c r="R33">
-        <v>177.2089328923056</v>
+        <v>1700.04477153674</v>
       </c>
       <c r="S33">
-        <v>0.0072054348744062</v>
+        <v>0.006557139561099978</v>
       </c>
       <c r="T33">
-        <v>0.0072054348744062</v>
+        <v>0.006557139561099979</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H34">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>157.6575907657268</v>
+        <v>184.7201091593733</v>
       </c>
       <c r="R34">
-        <v>157.6575907657268</v>
+        <v>1662.48098243436</v>
       </c>
       <c r="S34">
-        <v>0.006410464101200808</v>
+        <v>0.0064122545488274</v>
       </c>
       <c r="T34">
-        <v>0.006410464101200808</v>
+        <v>0.0064122545488274</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H35">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>196.9642518163876</v>
+        <v>211.0768742412556</v>
       </c>
       <c r="R35">
-        <v>196.9642518163876</v>
+        <v>1899.6918681713</v>
       </c>
       <c r="S35">
-        <v>0.008008699481936478</v>
+        <v>0.007327186266645187</v>
       </c>
       <c r="T35">
-        <v>0.008008699481936478</v>
+        <v>0.007327186266645188</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H36">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>75.34032713477309</v>
+        <v>80.18804758218444</v>
       </c>
       <c r="R36">
-        <v>75.34032713477309</v>
+        <v>721.69242823966</v>
       </c>
       <c r="S36">
-        <v>0.003063388575992247</v>
+        <v>0.002783596086048321</v>
       </c>
       <c r="T36">
-        <v>0.003063388575992247</v>
+        <v>0.002783596086048321</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H37">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>47.95379635778602</v>
+        <v>53.88169929984889</v>
       </c>
       <c r="R37">
-        <v>47.95379635778602</v>
+        <v>484.93529369864</v>
       </c>
       <c r="S37">
-        <v>0.001949833741431932</v>
+        <v>0.001870414504443109</v>
       </c>
       <c r="T37">
-        <v>0.001949833741431932</v>
+        <v>0.001870414504443109</v>
       </c>
     </row>
   </sheetData>
